--- a/Unity遇到的总结.xlsx
+++ b/Unity遇到的总结.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Unity小技巧</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,6 +35,14 @@
   </si>
   <si>
     <t>实现调试的时候打开输出，发布的时候关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理Hierarchy面板的事件（例如change、添加标志）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用的是委托（hierarchyWindowChanged、HierarchyWindowItemOnGUI）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -379,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -407,6 +415,17 @@
       </c>
       <c r="J2" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Unity遇到的总结.xlsx
+++ b/Unity遇到的总结.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Unity小技巧</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,6 +43,14 @@
   </si>
   <si>
     <t>使用的是委托（hierarchyWindowChanged、HierarchyWindowItemOnGUI）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在导入package的时候，不同路径下如果存在和包内名字相同的资源，unity自动过滤掉，不会导入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -387,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -426,6 +434,19 @@
       </c>
       <c r="J3" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
